--- a/SYB预测表计算.xlsx
+++ b/SYB预测表计算.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28322\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28322\Documents\SYB预测表计算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEFDE04-153A-44A6-949A-559E68049624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51641CB8-C421-409D-821E-E0CA09312FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,7 +226,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -272,12 +272,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -286,45 +301,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2298,7 +2319,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2308,45 +2329,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="2"/>
@@ -2356,46 +2377,46 @@
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>1200</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>1300</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>1300</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>1300</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>1300</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="5">
         <v>1600</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>1600</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="5">
         <v>1700</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="5">
         <v>1800</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="5">
         <v>1900</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="5">
         <v>2000</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="5">
         <v>2100</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="5">
         <f t="shared" ref="O2:O7" si="0">SUM(C2:N2)</f>
         <v>19100</v>
       </c>
@@ -2404,108 +2425,119 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2">
-        <v>30</v>
-      </c>
-      <c r="K3" s="2">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2">
-        <v>30</v>
-      </c>
-      <c r="M3" s="2">
-        <v>30</v>
-      </c>
-      <c r="N3" s="2">
-        <v>30</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="C3" s="5">
+        <v>40</v>
+      </c>
+      <c r="D3" s="5">
+        <f>C3</f>
+        <v>40</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:N3" si="1">D3</f>
+        <v>40</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="O3" s="5">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <f>C2*C3</f>
-        <v>36000</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:N4" si="1">D2*D3</f>
-        <v>39000</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="1"/>
-        <v>39000</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="1"/>
-        <v>39000</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="1"/>
-        <v>39000</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="1"/>
         <v>48000</v>
       </c>
-      <c r="I4" s="2">
-        <f t="shared" si="1"/>
-        <v>48000</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="1"/>
-        <v>51000</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="1"/>
-        <v>54000</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" si="1"/>
-        <v>57000</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" si="1"/>
-        <v>60000</v>
-      </c>
-      <c r="N4" s="2">
-        <f t="shared" si="1"/>
-        <v>63000</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:N4" si="2">D2*D3</f>
+        <v>52000</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="2"/>
+        <v>52000</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="2"/>
+        <v>52000</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="2"/>
+        <v>52000</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="2"/>
+        <v>64000</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="2"/>
+        <v>64000</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="2"/>
+        <v>68000</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="2"/>
+        <v>72000</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="2"/>
+        <v>76000</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="2"/>
+        <v>80000</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="2"/>
+        <v>84000</v>
+      </c>
+      <c r="O4" s="5">
         <f t="shared" si="0"/>
-        <v>573000</v>
+        <v>764000</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -2514,58 +2546,58 @@
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <f>C2+200</f>
         <v>1400</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" ref="D5:N5" si="2">D2+200</f>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:N5" si="3">D2+200</f>
         <v>1500</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="2"/>
+      <c r="E5" s="5">
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="2"/>
+      <c r="F5" s="5">
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="G5" s="2">
-        <f t="shared" si="2"/>
+      <c r="G5" s="5">
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="H5" s="2">
-        <f t="shared" si="2"/>
+      <c r="H5" s="5">
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-      <c r="I5" s="2">
-        <f t="shared" si="2"/>
+      <c r="I5" s="5">
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-      <c r="J5" s="2">
-        <f t="shared" si="2"/>
+      <c r="J5" s="5">
+        <f t="shared" si="3"/>
         <v>1900</v>
       </c>
-      <c r="K5" s="2">
-        <f t="shared" si="2"/>
+      <c r="K5" s="5">
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="L5" s="2">
-        <f t="shared" si="2"/>
+      <c r="L5" s="5">
+        <f t="shared" si="3"/>
         <v>2100</v>
       </c>
-      <c r="M5" s="2">
-        <f t="shared" si="2"/>
+      <c r="M5" s="5">
+        <f t="shared" si="3"/>
         <v>2200</v>
       </c>
-      <c r="N5" s="2">
-        <f t="shared" si="2"/>
+      <c r="N5" s="5">
+        <f t="shared" si="3"/>
         <v>2300</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="5">
         <f t="shared" si="0"/>
         <v>21500</v>
       </c>
@@ -2574,373 +2606,373 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2">
-        <f>30</f>
-        <v>30</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:N6" si="3">30</f>
-        <v>30</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="C6" s="5">
+        <f>45</f>
+        <v>45</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6</f>
+        <v>45</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:N6" si="4">D6</f>
+        <v>45</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="O6" s="5">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <f>C5*C6</f>
-        <v>42000</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:N7" si="4">D5*D6</f>
-        <v>45000</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="4"/>
-        <v>45000</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="4"/>
-        <v>45000</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="4"/>
-        <v>45000</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="4"/>
-        <v>54000</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="4"/>
-        <v>54000</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="4"/>
-        <v>57000</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="4"/>
-        <v>60000</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="4"/>
         <v>63000</v>
       </c>
-      <c r="M7" s="2">
-        <f t="shared" si="4"/>
-        <v>66000</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="4"/>
-        <v>69000</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:N7" si="5">D5*D6</f>
+        <v>67500</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="5"/>
+        <v>67500</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="5"/>
+        <v>67500</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="5"/>
+        <v>67500</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="5"/>
+        <v>81000</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="5"/>
+        <v>81000</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="5"/>
+        <v>85500</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="5"/>
+        <v>90000</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="5"/>
+        <v>94500</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="5"/>
+        <v>99000</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="5"/>
+        <v>103500</v>
+      </c>
+      <c r="O7" s="5">
         <f t="shared" si="0"/>
-        <v>645000</v>
+        <v>967500</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
@@ -2948,126 +2980,126 @@
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2">
-        <f>C2</f>
-        <v>1200</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" ref="D20:O20" si="5">D2</f>
-        <v>1300</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="5"/>
-        <v>1300</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="5"/>
-        <v>1300</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="5"/>
-        <v>1300</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="5"/>
-        <v>1600</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="5"/>
-        <v>1600</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="5"/>
-        <v>1700</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" si="5"/>
-        <v>1800</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="5"/>
-        <v>1900</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="N20" s="2">
-        <f t="shared" si="5"/>
-        <v>2100</v>
-      </c>
-      <c r="O20" s="2">
-        <f t="shared" si="5"/>
-        <v>19100</v>
+      <c r="C20" s="5">
+        <f>C2+C5+C8+C11+C14+C17</f>
+        <v>2600</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:O20" si="6">D2+D5+D8+D11+D14+D17</f>
+        <v>2800</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="6"/>
+        <v>2800</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="6"/>
+        <v>2800</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="6"/>
+        <v>2800</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="6"/>
+        <v>3400</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="6"/>
+        <v>3400</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="6"/>
+        <v>3600</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="6"/>
+        <v>3800</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="6"/>
+        <v>4000</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="6"/>
+        <v>4200</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="6"/>
+        <v>4400</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="6"/>
+        <v>40600</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2">
-        <f>C4</f>
-        <v>36000</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" ref="D21:O21" si="6">D4</f>
-        <v>39000</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="6"/>
-        <v>39000</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="6"/>
-        <v>39000</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="6"/>
-        <v>39000</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="6"/>
-        <v>48000</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="6"/>
-        <v>48000</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="6"/>
-        <v>51000</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="6"/>
-        <v>54000</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="6"/>
-        <v>57000</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" si="6"/>
-        <v>60000</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" si="6"/>
-        <v>63000</v>
-      </c>
-      <c r="O21" s="2">
-        <f t="shared" si="6"/>
-        <v>573000</v>
+      <c r="C21" s="5">
+        <f>C4+C7+C10+C13+C16+C19</f>
+        <v>111000</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" ref="D21:N21" si="7">D4+D7+D10+D13+D16+D19</f>
+        <v>119500</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="7"/>
+        <v>119500</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="7"/>
+        <v>119500</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="7"/>
+        <v>119500</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="7"/>
+        <v>145000</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="7"/>
+        <v>145000</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="7"/>
+        <v>153500</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="7"/>
+        <v>162000</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="7"/>
+        <v>170500</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="7"/>
+        <v>179000</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="7"/>
+        <v>187500</v>
+      </c>
+      <c r="O21" s="5">
+        <f>O4+O7</f>
+        <v>1731500</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>20</v>
       </c>
@@ -3081,9 +3113,9 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
@@ -3137,8 +3169,9 @@
     <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3147,7 +3180,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3158,45 +3191,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="2"/>
@@ -3205,178 +3238,178 @@
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2">
-        <f>销售收入预测!C4</f>
-        <v>36000</v>
-      </c>
-      <c r="D2" s="2">
-        <f>销售收入预测!D4</f>
-        <v>39000</v>
-      </c>
-      <c r="E2" s="2">
-        <f>销售收入预测!E4</f>
-        <v>39000</v>
-      </c>
-      <c r="F2" s="2">
-        <f>销售收入预测!F4</f>
-        <v>39000</v>
-      </c>
-      <c r="G2" s="2">
-        <f>销售收入预测!G4</f>
-        <v>39000</v>
-      </c>
-      <c r="H2" s="2">
-        <f>销售收入预测!H4</f>
-        <v>48000</v>
-      </c>
-      <c r="I2" s="2">
-        <f>销售收入预测!I4</f>
-        <v>48000</v>
-      </c>
-      <c r="J2" s="2">
-        <f>销售收入预测!J4</f>
-        <v>51000</v>
-      </c>
-      <c r="K2" s="2">
-        <f>销售收入预测!K4</f>
-        <v>54000</v>
-      </c>
-      <c r="L2" s="2">
-        <f>销售收入预测!L4</f>
-        <v>57000</v>
-      </c>
-      <c r="M2" s="2">
-        <f>销售收入预测!M4</f>
-        <v>60000</v>
-      </c>
-      <c r="N2" s="2">
-        <f>销售收入预测!N4</f>
-        <v>63000</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="C2" s="8">
+        <f>销售收入预测!C21</f>
+        <v>111000</v>
+      </c>
+      <c r="D2" s="8">
+        <f>销售收入预测!D21</f>
+        <v>119500</v>
+      </c>
+      <c r="E2" s="8">
+        <f>销售收入预测!E21</f>
+        <v>119500</v>
+      </c>
+      <c r="F2" s="8">
+        <f>销售收入预测!F21</f>
+        <v>119500</v>
+      </c>
+      <c r="G2" s="8">
+        <f>销售收入预测!G21</f>
+        <v>119500</v>
+      </c>
+      <c r="H2" s="8">
+        <f>销售收入预测!H21</f>
+        <v>145000</v>
+      </c>
+      <c r="I2" s="8">
+        <f>销售收入预测!I21</f>
+        <v>145000</v>
+      </c>
+      <c r="J2" s="8">
+        <f>销售收入预测!J21</f>
+        <v>153500</v>
+      </c>
+      <c r="K2" s="8">
+        <f>销售收入预测!K21</f>
+        <v>162000</v>
+      </c>
+      <c r="L2" s="8">
+        <f>销售收入预测!L21</f>
+        <v>170500</v>
+      </c>
+      <c r="M2" s="8">
+        <f>销售收入预测!M21</f>
+        <v>179000</v>
+      </c>
+      <c r="N2" s="8">
+        <f>销售收入预测!N21</f>
+        <v>187500</v>
+      </c>
+      <c r="O2" s="5">
         <f>销售收入预测!O4</f>
-        <v>573000</v>
+        <v>764000</v>
       </c>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <f>C2/1.03*0.03</f>
-        <v>1048.5436893203901</v>
-      </c>
-      <c r="D3" s="1">
+        <v>3233.009708737864</v>
+      </c>
+      <c r="D3" s="8">
         <f t="shared" ref="D3:O3" si="0">D2/1.03*0.03</f>
-        <v>1135.92233009709</v>
-      </c>
-      <c r="E3" s="1">
+        <v>3480.5825242718447</v>
+      </c>
+      <c r="E3" s="8">
         <f t="shared" si="0"/>
-        <v>1135.92233009709</v>
-      </c>
-      <c r="F3" s="1">
+        <v>3480.5825242718447</v>
+      </c>
+      <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>1135.92233009709</v>
-      </c>
-      <c r="G3" s="1">
+        <v>3480.5825242718447</v>
+      </c>
+      <c r="G3" s="8">
         <f t="shared" si="0"/>
-        <v>1135.92233009709</v>
-      </c>
-      <c r="H3" s="1">
+        <v>3480.5825242718447</v>
+      </c>
+      <c r="H3" s="8">
         <f t="shared" si="0"/>
-        <v>1398.0582524271799</v>
-      </c>
-      <c r="I3" s="1">
+        <v>4223.3009708737864</v>
+      </c>
+      <c r="I3" s="8">
         <f t="shared" si="0"/>
-        <v>1398.0582524271799</v>
-      </c>
-      <c r="J3" s="1">
+        <v>4223.3009708737864</v>
+      </c>
+      <c r="J3" s="8">
         <f t="shared" si="0"/>
-        <v>1485.4368932038799</v>
-      </c>
-      <c r="K3" s="1">
+        <v>4470.8737864077666</v>
+      </c>
+      <c r="K3" s="8">
         <f t="shared" si="0"/>
-        <v>1572.8155339805801</v>
-      </c>
-      <c r="L3" s="1">
+        <v>4718.4466019417478</v>
+      </c>
+      <c r="L3" s="8">
         <f t="shared" si="0"/>
-        <v>1660.1941747572801</v>
-      </c>
-      <c r="M3" s="1">
+        <v>4966.019417475728</v>
+      </c>
+      <c r="M3" s="8">
         <f t="shared" si="0"/>
-        <v>1747.57281553398</v>
-      </c>
-      <c r="N3" s="1">
+        <v>5213.5922330097083</v>
+      </c>
+      <c r="N3" s="8">
         <f t="shared" si="0"/>
-        <v>1834.95145631068</v>
-      </c>
-      <c r="O3" s="1">
+        <v>5461.1650485436894</v>
+      </c>
+      <c r="O3" s="8">
         <f t="shared" si="0"/>
-        <v>16689.320388349501</v>
+        <v>22252.427184466018</v>
       </c>
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <f>C2-C3</f>
-        <v>34951.456310679598</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:O6" si="1">D2-D3</f>
-        <v>37864.077669902901</v>
-      </c>
-      <c r="E4" s="1">
+        <v>107766.99029126213</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:O4" si="1">D2-D3</f>
+        <v>116019.41747572816</v>
+      </c>
+      <c r="E4" s="8">
         <f t="shared" si="1"/>
-        <v>37864.077669902901</v>
-      </c>
-      <c r="F4" s="1">
+        <v>116019.41747572816</v>
+      </c>
+      <c r="F4" s="8">
         <f t="shared" si="1"/>
-        <v>37864.077669902901</v>
-      </c>
-      <c r="G4" s="1">
+        <v>116019.41747572816</v>
+      </c>
+      <c r="G4" s="8">
         <f t="shared" si="1"/>
-        <v>37864.077669902901</v>
-      </c>
-      <c r="H4" s="1">
+        <v>116019.41747572816</v>
+      </c>
+      <c r="H4" s="8">
         <f t="shared" si="1"/>
-        <v>46601.941747572797</v>
-      </c>
-      <c r="I4" s="1">
+        <v>140776.6990291262</v>
+      </c>
+      <c r="I4" s="8">
         <f t="shared" si="1"/>
-        <v>46601.941747572797</v>
-      </c>
-      <c r="J4" s="1">
+        <v>140776.6990291262</v>
+      </c>
+      <c r="J4" s="8">
         <f t="shared" si="1"/>
-        <v>49514.5631067961</v>
-      </c>
-      <c r="K4" s="1">
+        <v>149029.12621359224</v>
+      </c>
+      <c r="K4" s="8">
         <f t="shared" si="1"/>
-        <v>52427.184466019396</v>
-      </c>
-      <c r="L4" s="1">
+        <v>157281.55339805825</v>
+      </c>
+      <c r="L4" s="8">
         <f t="shared" si="1"/>
-        <v>55339.8058252427</v>
-      </c>
-      <c r="M4" s="1">
+        <v>165533.98058252427</v>
+      </c>
+      <c r="M4" s="8">
         <f t="shared" si="1"/>
-        <v>58252.427184466003</v>
-      </c>
-      <c r="N4" s="1">
+        <v>173786.40776699031</v>
+      </c>
+      <c r="N4" s="8">
         <f t="shared" si="1"/>
-        <v>61165.0485436893</v>
-      </c>
-      <c r="O4" s="1">
+        <v>182038.83495145632</v>
+      </c>
+      <c r="O4" s="8">
         <f t="shared" si="1"/>
-        <v>556310.67961165099</v>
+        <v>741747.57281553396</v>
       </c>
       <c r="P4" s="2"/>
     </row>
@@ -3384,78 +3417,78 @@
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <f>10000/12</f>
         <v>833.33333333333337</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <f t="shared" ref="D6:N6" si="2">10000/12</f>
         <v>833.33333333333337</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <f t="shared" si="2"/>
         <v>833.33333333333337</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <f t="shared" si="2"/>
         <v>833.33333333333337</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <f t="shared" si="2"/>
         <v>833.33333333333337</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <f t="shared" si="2"/>
         <v>833.33333333333337</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="10">
         <f t="shared" si="2"/>
         <v>833.33333333333337</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="10">
         <f t="shared" si="2"/>
         <v>833.33333333333337</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="10">
         <f t="shared" si="2"/>
         <v>833.33333333333337</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="10">
         <f t="shared" si="2"/>
         <v>833.33333333333337</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
         <f t="shared" si="2"/>
         <v>833.33333333333337</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="10">
         <f t="shared" si="2"/>
         <v>833.33333333333337</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="8">
         <f>SUM(C6:N6)</f>
         <v>10000</v>
       </c>
@@ -3463,58 +3496,58 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <f>12000/12</f>
         <v>1000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="8">
         <f t="shared" ref="D7:N7" si="3">12000/12</f>
         <v>1000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="8">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="8">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="8">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="8">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="8">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="8">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="8">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="8">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="8">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="8">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="8">
         <f>SUM(C7:N7)</f>
         <v>12000</v>
       </c>
@@ -3522,784 +3555,824 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D6:D20" si="4">C10</f>
-        <v>6000</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" ref="E10:E19" si="5">D10</f>
-        <v>6000</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" ref="F10:F19" si="6">E10</f>
-        <v>6000</v>
-      </c>
-      <c r="G10" s="2">
-        <v>6000</v>
-      </c>
-      <c r="H10" s="2">
-        <v>6000</v>
-      </c>
-      <c r="I10" s="2">
-        <v>6000</v>
-      </c>
-      <c r="J10" s="2">
-        <v>6000</v>
-      </c>
-      <c r="K10" s="2">
-        <v>6000</v>
-      </c>
-      <c r="L10" s="2">
-        <v>6000</v>
-      </c>
-      <c r="M10" s="2">
-        <v>6000</v>
-      </c>
-      <c r="N10" s="2">
-        <v>6000</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" ref="O6:O12" si="7">SUM(C10:N10)</f>
-        <v>72000</v>
+      <c r="C10" s="5">
+        <v>7000</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" ref="D10:D20" si="4">C10</f>
+        <v>7000</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ref="E10:E20" si="5">D10</f>
+        <v>7000</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F20" si="6">E10</f>
+        <v>7000</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" ref="G10:G11" si="7">F10</f>
+        <v>7000</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" ref="H10:H11" si="8">G10</f>
+        <v>7000</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ref="I10:I11" si="9">H10</f>
+        <v>7000</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" ref="J10:J11" si="10">I10</f>
+        <v>7000</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" ref="K10:K11" si="11">J10</f>
+        <v>7000</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" ref="L10:L11" si="12">K10</f>
+        <v>7000</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" ref="M10:M11" si="13">L10</f>
+        <v>7000</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" ref="N10:N11" si="14">M10</f>
+        <v>7000</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" ref="O10:O12" si="15">SUM(C10:N10)</f>
+        <v>84000</v>
       </c>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>3000</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <f t="shared" si="5"/>
         <v>3000</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
+        <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="5">
+        <f t="shared" si="8"/>
         <v>3000</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="5">
+        <f t="shared" si="9"/>
         <v>3000</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="5">
+        <f t="shared" si="10"/>
         <v>3000</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="5">
+        <f t="shared" si="11"/>
         <v>3000</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="5">
+        <f t="shared" si="12"/>
         <v>3000</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="5">
+        <f t="shared" si="13"/>
         <v>3000</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="5">
+        <f t="shared" si="14"/>
         <v>3000</v>
       </c>
-      <c r="O11" s="2">
-        <f t="shared" si="7"/>
+      <c r="O11" s="5">
+        <f t="shared" si="15"/>
         <v>36000</v>
       </c>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>18</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="5">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>18</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <v>18</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="5">
         <v>18</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="5">
         <v>18</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="5">
         <v>18</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="5">
         <v>18</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="5">
         <v>18</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="5">
         <v>18</v>
       </c>
-      <c r="O12" s="2">
-        <f t="shared" si="7"/>
+      <c r="O12" s="5">
+        <f t="shared" si="15"/>
         <v>216</v>
       </c>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>300</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="5">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="G13" s="2">
-        <f t="shared" ref="G13" si="8">F13</f>
+      <c r="G13" s="5">
+        <f t="shared" ref="G13:G14" si="16">F13</f>
         <v>300</v>
       </c>
-      <c r="H13" s="2">
-        <f t="shared" ref="H13" si="9">G13</f>
+      <c r="H13" s="5">
+        <f t="shared" ref="H13:H14" si="17">G13</f>
         <v>300</v>
       </c>
-      <c r="I13" s="2">
-        <f t="shared" ref="I13" si="10">H13</f>
+      <c r="I13" s="5">
+        <f t="shared" ref="I13:I14" si="18">H13</f>
         <v>300</v>
       </c>
-      <c r="J13" s="2">
-        <f t="shared" ref="J13" si="11">I13</f>
+      <c r="J13" s="5">
+        <f t="shared" ref="J13:J14" si="19">I13</f>
         <v>300</v>
       </c>
-      <c r="K13" s="2">
-        <f t="shared" ref="K13" si="12">J13</f>
+      <c r="K13" s="5">
+        <f t="shared" ref="K13:K14" si="20">J13</f>
         <v>300</v>
       </c>
-      <c r="L13" s="2">
-        <f t="shared" ref="L13" si="13">K13</f>
+      <c r="L13" s="5">
+        <f t="shared" ref="L13:L14" si="21">K13</f>
         <v>300</v>
       </c>
-      <c r="M13" s="2">
-        <f t="shared" ref="M13" si="14">L13</f>
+      <c r="M13" s="5">
+        <f t="shared" ref="M13:M14" si="22">L13</f>
         <v>300</v>
       </c>
-      <c r="N13" s="2">
-        <f t="shared" ref="N13" si="15">M13</f>
+      <c r="N13" s="5">
+        <f t="shared" ref="N13:N14" si="23">M13</f>
         <v>300</v>
       </c>
-      <c r="O13" s="2">
-        <f t="shared" ref="O13:O23" si="16">SUM(C13:N13)</f>
+      <c r="O13" s="5">
+        <f t="shared" ref="O13:O23" si="24">SUM(C13:N13)</f>
         <v>3600</v>
       </c>
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
+        <v>100</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="24"/>
+        <v>1200</v>
+      </c>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5">
+        <v>200</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="G15" s="5">
+        <v>200</v>
+      </c>
+      <c r="H15" s="5">
+        <v>200</v>
+      </c>
+      <c r="I15" s="5">
+        <v>200</v>
+      </c>
+      <c r="J15" s="5">
+        <v>200</v>
+      </c>
+      <c r="K15" s="5">
+        <v>200</v>
+      </c>
+      <c r="L15" s="5">
+        <v>200</v>
+      </c>
+      <c r="M15" s="5">
+        <v>200</v>
+      </c>
+      <c r="N15" s="5">
+        <v>200</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="24"/>
+        <v>2400</v>
+      </c>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5">
         <v>50</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D16" s="5">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E16" s="5">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F16" s="5">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G16" s="5">
         <v>50</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H16" s="5">
         <v>50</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I16" s="5">
         <v>50</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J16" s="5">
         <v>50</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K16" s="5">
         <v>50</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L16" s="5">
         <v>50</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M16" s="5">
         <v>50</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N16" s="5">
         <v>50</v>
       </c>
-      <c r="O14" s="2">
-        <f t="shared" si="16"/>
+      <c r="O16" s="5">
+        <f t="shared" si="24"/>
         <v>600</v>
       </c>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2">
-        <v>200</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5">
+        <v>100</v>
+      </c>
+      <c r="D17" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="E15" s="2">
+        <v>100</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="F15" s="2">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="6"/>
-        <v>200</v>
-      </c>
-      <c r="G15" s="2">
-        <v>200</v>
-      </c>
-      <c r="H15" s="2">
-        <v>200</v>
-      </c>
-      <c r="I15" s="2">
-        <v>200</v>
-      </c>
-      <c r="J15" s="2">
-        <v>200</v>
-      </c>
-      <c r="K15" s="2">
-        <v>200</v>
-      </c>
-      <c r="L15" s="2">
-        <v>200</v>
-      </c>
-      <c r="M15" s="2">
-        <v>200</v>
-      </c>
-      <c r="N15" s="2">
-        <v>200</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="16"/>
-        <v>2400</v>
-      </c>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2">
+        <v>100</v>
+      </c>
+      <c r="G17" s="5">
+        <v>100</v>
+      </c>
+      <c r="H17" s="5">
+        <v>100</v>
+      </c>
+      <c r="I17" s="5">
+        <v>100</v>
+      </c>
+      <c r="J17" s="5">
+        <v>100</v>
+      </c>
+      <c r="K17" s="5">
+        <v>100</v>
+      </c>
+      <c r="L17" s="5">
+        <v>100</v>
+      </c>
+      <c r="M17" s="5">
+        <v>100</v>
+      </c>
+      <c r="N17" s="5">
+        <v>100</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="24"/>
+        <v>1200</v>
+      </c>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5">
         <v>50</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D18" s="5">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E18" s="5">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F18" s="5">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G18" s="5">
+        <f t="shared" ref="G18:G20" si="25">F18</f>
         <v>50</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H18" s="5">
+        <f t="shared" ref="H18:H20" si="26">G18</f>
         <v>50</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I18" s="5">
+        <f t="shared" ref="I18:I20" si="27">H18</f>
         <v>50</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J18" s="5">
+        <f t="shared" ref="J18:J20" si="28">I18</f>
         <v>50</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K18" s="5">
+        <f t="shared" ref="K18:K20" si="29">J18</f>
         <v>50</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L18" s="5">
+        <f t="shared" ref="L18:L20" si="30">K18</f>
         <v>50</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M18" s="5">
+        <f t="shared" ref="M18:M20" si="31">L18</f>
         <v>50</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N18" s="5">
+        <f t="shared" ref="N18:N20" si="32">M18</f>
         <v>50</v>
       </c>
-      <c r="O16" s="2">
-        <f t="shared" si="16"/>
+      <c r="O18" s="5">
+        <f t="shared" si="24"/>
         <v>600</v>
-      </c>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2">
-        <v>100</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="G17" s="2">
-        <v>100</v>
-      </c>
-      <c r="H17" s="2">
-        <v>100</v>
-      </c>
-      <c r="I17" s="2">
-        <v>100</v>
-      </c>
-      <c r="J17" s="2">
-        <v>100</v>
-      </c>
-      <c r="K17" s="2">
-        <v>100</v>
-      </c>
-      <c r="L17" s="2">
-        <v>100</v>
-      </c>
-      <c r="M17" s="2">
-        <v>100</v>
-      </c>
-      <c r="N17" s="2">
-        <v>100</v>
-      </c>
-      <c r="O17" s="2">
-        <f t="shared" si="16"/>
-        <v>1200</v>
-      </c>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="G18" s="2">
-        <v>25</v>
-      </c>
-      <c r="H18" s="2">
-        <v>25</v>
-      </c>
-      <c r="I18" s="2">
-        <v>25</v>
-      </c>
-      <c r="J18" s="2">
-        <v>25</v>
-      </c>
-      <c r="K18" s="2">
-        <v>25</v>
-      </c>
-      <c r="L18" s="2">
-        <v>25</v>
-      </c>
-      <c r="M18" s="2">
-        <v>25</v>
-      </c>
-      <c r="N18" s="2">
-        <v>25</v>
-      </c>
-      <c r="O18" s="2">
-        <f t="shared" si="16"/>
-        <v>300</v>
       </c>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>0</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="5">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="5">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="5">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="5">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="5">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="5">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="5">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="5">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="O19" s="2">
-        <f t="shared" si="16"/>
+      <c r="O19" s="5">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>0</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E20" s="2">
-        <f t="shared" ref="E20:N20" si="17">D20</f>
+      <c r="E20" s="5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" si="17"/>
+      <c r="F20" s="5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G20" s="2">
-        <f t="shared" si="17"/>
+      <c r="G20" s="5">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H20" s="2">
-        <f t="shared" si="17"/>
+      <c r="H20" s="5">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="I20" s="2">
-        <f t="shared" si="17"/>
+      <c r="I20" s="5">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" si="17"/>
+      <c r="J20" s="5">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="K20" s="2">
-        <f t="shared" si="17"/>
+      <c r="K20" s="5">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="L20" s="2">
-        <f t="shared" si="17"/>
+      <c r="L20" s="5">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="M20" s="2">
-        <f t="shared" si="17"/>
+      <c r="M20" s="5">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="N20" s="2">
-        <f t="shared" si="17"/>
+      <c r="N20" s="5">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="O20" s="2">
-        <f t="shared" si="16"/>
+      <c r="O20" s="5">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <f>SUM(C6:C20)</f>
-        <v>11576.333333333334</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" ref="D21:N21" si="18">SUM(D6:D20)</f>
-        <v>11576.333333333334</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="18"/>
-        <v>11576.333333333334</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="18"/>
-        <v>11576.333333333334</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="18"/>
-        <v>11576.333333333334</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="18"/>
-        <v>11576.333333333334</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="18"/>
-        <v>11576.333333333334</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="18"/>
-        <v>11576.333333333334</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="18"/>
-        <v>11576.333333333334</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="18"/>
-        <v>11576.333333333334</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="18"/>
-        <v>11576.333333333334</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="18"/>
-        <v>11576.333333333334</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="16"/>
-        <v>138915.99999999997</v>
+        <v>12651.333333333334</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" ref="D21:N21" si="33">SUM(D6:D20)</f>
+        <v>12651.333333333334</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="33"/>
+        <v>12651.333333333334</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="33"/>
+        <v>12651.333333333334</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="33"/>
+        <v>12651.333333333334</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="33"/>
+        <v>12651.333333333334</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="33"/>
+        <v>12651.333333333334</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="33"/>
+        <v>12651.333333333334</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="33"/>
+        <v>12651.333333333334</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="33"/>
+        <v>12651.333333333334</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="33"/>
+        <v>12651.333333333334</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="33"/>
+        <v>12651.333333333334</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" si="24"/>
+        <v>151816</v>
       </c>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1">
+      <c r="B22" s="5"/>
+      <c r="C22" s="8">
         <f>C3*0.05</f>
-        <v>52.427184466019398</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" ref="D22:N22" si="19">D3*0.05</f>
-        <v>56.796116504854403</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="19"/>
-        <v>56.796116504854403</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="19"/>
-        <v>56.796116504854403</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="19"/>
-        <v>56.796116504854403</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="19"/>
-        <v>69.902912621359206</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="19"/>
-        <v>69.902912621359206</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="19"/>
-        <v>74.271844660194205</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="19"/>
-        <v>78.640776699029104</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="19"/>
-        <v>83.009708737864102</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="19"/>
-        <v>87.378640776699001</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="19"/>
-        <v>91.747572815533999</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" si="16"/>
-        <v>834.46601941747599</v>
+        <v>161.65048543689321</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" ref="D22:N22" si="34">D3*0.05</f>
+        <v>174.02912621359224</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="34"/>
+        <v>174.02912621359224</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="34"/>
+        <v>174.02912621359224</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="34"/>
+        <v>174.02912621359224</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="34"/>
+        <v>211.16504854368932</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="34"/>
+        <v>211.16504854368932</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="34"/>
+        <v>223.54368932038835</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="34"/>
+        <v>235.92233009708741</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="34"/>
+        <v>248.30097087378641</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="34"/>
+        <v>260.67961165048541</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="34"/>
+        <v>273.05825242718447</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="24"/>
+        <v>2521.6019417475732</v>
       </c>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1">
+      <c r="B23" s="5"/>
+      <c r="C23" s="8">
         <f>C4-C21-C22</f>
-        <v>23322.695792880244</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" ref="D23:N23" si="20">D4-D21-D22</f>
-        <v>26230.948220064711</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="20"/>
-        <v>26230.948220064711</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="20"/>
-        <v>26230.948220064711</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="20"/>
-        <v>26230.948220064711</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="20"/>
-        <v>34955.705501618104</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="20"/>
-        <v>34955.705501618104</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="20"/>
-        <v>37863.957928802571</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="20"/>
-        <v>40772.21035598703</v>
-      </c>
-      <c r="L23" s="1">
-        <f t="shared" si="20"/>
-        <v>43680.462783171497</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="shared" si="20"/>
-        <v>46588.715210355971</v>
-      </c>
-      <c r="N23" s="1">
-        <f t="shared" si="20"/>
-        <v>49496.967637540431</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" si="16"/>
-        <v>416560.21359223279</v>
+        <v>94954.006472491907</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" ref="D23:N23" si="35">D4-D21-D22</f>
+        <v>103194.05501618124</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="35"/>
+        <v>103194.05501618124</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="35"/>
+        <v>103194.05501618124</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="35"/>
+        <v>103194.05501618124</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="35"/>
+        <v>127914.20064724919</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="35"/>
+        <v>127914.20064724919</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="35"/>
+        <v>136154.24919093851</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="35"/>
+        <v>144394.29773462782</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="35"/>
+        <v>152634.34627831713</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="35"/>
+        <v>160874.39482200646</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="35"/>
+        <v>169114.4433656958</v>
+      </c>
+      <c r="O23" s="8">
+        <f>SUM(C23:N23)</f>
+        <v>1526730.3592233011</v>
       </c>
       <c r="P23" s="2"/>
     </row>
@@ -4307,65 +4380,65 @@
       <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="1">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="8">
         <f>IF(O23&gt;300000,O23*0.2,O23*0.5*0.2)</f>
-        <v>83312.042718446566</v>
+        <v>305346.07184466021</v>
       </c>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="1"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="8"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -4373,21 +4446,21 @@
         <v>47</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="1">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="8">
         <f>O23-O24</f>
-        <v>333248.17087378621</v>
+        <v>1221384.2873786408</v>
       </c>
       <c r="P27" s="2"/>
     </row>
@@ -4418,8 +4491,8 @@
     <mergeCell ref="A24:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4429,7 +4502,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4442,233 +4515,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="1">
+      <c r="B2" s="13"/>
+      <c r="C2" s="8">
         <v>10000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="8">
         <f>C27</f>
-        <v>45156.029126213587</v>
-      </c>
-      <c r="E2" s="1">
+        <v>116787.33980582524</v>
+      </c>
+      <c r="E2" s="8">
         <f t="shared" ref="E2:N2" si="0">D27</f>
-        <v>73220.310679611648</v>
-      </c>
-      <c r="F2" s="1">
+        <v>221814.72815533981</v>
+      </c>
+      <c r="F2" s="8">
         <f t="shared" si="0"/>
-        <v>101284.59223300971</v>
-      </c>
-      <c r="G2" s="1">
+        <v>326842.11650485441</v>
+      </c>
+      <c r="G2" s="8">
         <f t="shared" si="0"/>
-        <v>129348.87378640776</v>
-      </c>
-      <c r="H2" s="1">
+        <v>431869.50485436898</v>
+      </c>
+      <c r="H2" s="8">
         <f t="shared" si="0"/>
-        <v>157413.15533980582</v>
-      </c>
-      <c r="I2" s="1">
+        <v>536896.89320388355</v>
+      </c>
+      <c r="I2" s="8">
         <f t="shared" si="0"/>
-        <v>194202.19417475729</v>
-      </c>
-      <c r="J2" s="1">
+        <v>666644.42718446604</v>
+      </c>
+      <c r="J2" s="8">
         <f t="shared" si="0"/>
-        <v>230991.23300970875</v>
-      </c>
-      <c r="K2" s="1">
+        <v>796391.96116504853</v>
+      </c>
+      <c r="K2" s="8">
         <f t="shared" si="0"/>
-        <v>270688.52427184465</v>
-      </c>
-      <c r="L2" s="1">
+        <v>934379.54368932033</v>
+      </c>
+      <c r="L2" s="8">
         <f t="shared" si="0"/>
-        <v>313294.06796116504</v>
-      </c>
-      <c r="M2" s="1">
+        <v>1080607.1747572816</v>
+      </c>
+      <c r="M2" s="8">
         <f t="shared" si="0"/>
-        <v>358807.86407766992</v>
-      </c>
-      <c r="N2" s="1">
+        <v>1235074.8543689321</v>
+      </c>
+      <c r="N2" s="8">
         <f t="shared" si="0"/>
-        <v>407229.91262135922</v>
-      </c>
-      <c r="O2" s="1">
+        <v>1397782.5825242719</v>
+      </c>
+      <c r="O2" s="8">
         <f>SUM(C2:N2)</f>
-        <v>2291636.7572815535</v>
+        <v>7755091.1262135915</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <f>销售与成长计划!C2</f>
-        <v>36000</v>
-      </c>
-      <c r="D3" s="2">
+        <v>111000</v>
+      </c>
+      <c r="D3" s="5">
         <f>销售与成长计划!D2</f>
-        <v>39000</v>
-      </c>
-      <c r="E3" s="2">
+        <v>119500</v>
+      </c>
+      <c r="E3" s="5">
         <f>销售与成长计划!E2</f>
-        <v>39000</v>
-      </c>
-      <c r="F3" s="2">
+        <v>119500</v>
+      </c>
+      <c r="F3" s="5">
         <f>销售与成长计划!F2</f>
-        <v>39000</v>
-      </c>
-      <c r="G3" s="2">
+        <v>119500</v>
+      </c>
+      <c r="G3" s="5">
         <f>销售与成长计划!G2</f>
-        <v>39000</v>
-      </c>
-      <c r="H3" s="2">
+        <v>119500</v>
+      </c>
+      <c r="H3" s="5">
         <f>销售与成长计划!H2</f>
-        <v>48000</v>
-      </c>
-      <c r="I3" s="2">
+        <v>145000</v>
+      </c>
+      <c r="I3" s="5">
         <f>销售与成长计划!I2</f>
-        <v>48000</v>
-      </c>
-      <c r="J3" s="2">
+        <v>145000</v>
+      </c>
+      <c r="J3" s="5">
         <f>销售与成长计划!J2</f>
-        <v>51000</v>
-      </c>
-      <c r="K3" s="2">
+        <v>153500</v>
+      </c>
+      <c r="K3" s="5">
         <f>销售与成长计划!K2</f>
-        <v>54000</v>
-      </c>
-      <c r="L3" s="2">
+        <v>162000</v>
+      </c>
+      <c r="L3" s="5">
         <f>销售与成长计划!L2</f>
-        <v>57000</v>
-      </c>
-      <c r="M3" s="2">
+        <v>170500</v>
+      </c>
+      <c r="M3" s="5">
         <f>销售与成长计划!M2</f>
-        <v>60000</v>
-      </c>
-      <c r="N3" s="2">
+        <v>179000</v>
+      </c>
+      <c r="N3" s="5">
         <f>销售与成长计划!N2</f>
-        <v>63000</v>
-      </c>
-      <c r="O3" s="2">
+        <v>187500</v>
+      </c>
+      <c r="O3" s="5">
         <f t="shared" ref="O3:O27" si="1">SUM(C3:N3)</f>
-        <v>573000</v>
+        <v>1731500</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>10000</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
@@ -4676,244 +4749,244 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <f>SUM(C3:C6)</f>
-        <v>46000</v>
-      </c>
-      <c r="D7" s="2">
+        <v>121000</v>
+      </c>
+      <c r="D7" s="5">
         <f t="shared" ref="D7:N7" si="2">SUM(D3:D6)</f>
-        <v>39000</v>
-      </c>
-      <c r="E7" s="2">
+        <v>119500</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="2"/>
-        <v>39000</v>
-      </c>
-      <c r="F7" s="2">
+        <v>119500</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>39000</v>
-      </c>
-      <c r="G7" s="2">
+        <v>119500</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="2"/>
-        <v>39000</v>
-      </c>
-      <c r="H7" s="2">
+        <v>119500</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="2"/>
-        <v>48000</v>
-      </c>
-      <c r="I7" s="2">
+        <v>145000</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" si="2"/>
-        <v>48000</v>
-      </c>
-      <c r="J7" s="2">
+        <v>145000</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="2"/>
-        <v>51000</v>
-      </c>
-      <c r="K7" s="2">
+        <v>153500</v>
+      </c>
+      <c r="K7" s="5">
         <f t="shared" si="2"/>
-        <v>54000</v>
-      </c>
-      <c r="L7" s="2">
+        <v>162000</v>
+      </c>
+      <c r="L7" s="5">
         <f t="shared" si="2"/>
-        <v>57000</v>
-      </c>
-      <c r="M7" s="2">
+        <v>170500</v>
+      </c>
+      <c r="M7" s="5">
         <f t="shared" si="2"/>
-        <v>60000</v>
-      </c>
-      <c r="N7" s="2">
+        <v>179000</v>
+      </c>
+      <c r="N7" s="5">
         <f t="shared" si="2"/>
-        <v>63000</v>
-      </c>
-      <c r="O7" s="2">
+        <v>187500</v>
+      </c>
+      <c r="O7" s="5">
         <f t="shared" si="1"/>
-        <v>583000</v>
+        <v>1741500</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <f>销售与成长计划!C10</f>
-        <v>6000</v>
-      </c>
-      <c r="D11" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D11" s="5">
         <f>销售与成长计划!D10</f>
-        <v>6000</v>
-      </c>
-      <c r="E11" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E11" s="5">
         <f>销售与成长计划!E10</f>
-        <v>6000</v>
-      </c>
-      <c r="F11" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F11" s="5">
         <f>销售与成长计划!F10</f>
-        <v>6000</v>
-      </c>
-      <c r="G11" s="2">
+        <v>7000</v>
+      </c>
+      <c r="G11" s="5">
         <f>销售与成长计划!G10</f>
-        <v>6000</v>
-      </c>
-      <c r="H11" s="2">
+        <v>7000</v>
+      </c>
+      <c r="H11" s="5">
         <f>销售与成长计划!H10</f>
-        <v>6000</v>
-      </c>
-      <c r="I11" s="2">
+        <v>7000</v>
+      </c>
+      <c r="I11" s="5">
         <f>销售与成长计划!I10</f>
-        <v>6000</v>
-      </c>
-      <c r="J11" s="2">
+        <v>7000</v>
+      </c>
+      <c r="J11" s="5">
         <f>销售与成长计划!J10</f>
-        <v>6000</v>
-      </c>
-      <c r="K11" s="2">
+        <v>7000</v>
+      </c>
+      <c r="K11" s="5">
         <f>销售与成长计划!K10</f>
-        <v>6000</v>
-      </c>
-      <c r="L11" s="2">
+        <v>7000</v>
+      </c>
+      <c r="L11" s="5">
         <f>销售与成长计划!L10</f>
-        <v>6000</v>
-      </c>
-      <c r="M11" s="2">
+        <v>7000</v>
+      </c>
+      <c r="M11" s="5">
         <f>销售与成长计划!M10</f>
-        <v>6000</v>
-      </c>
-      <c r="N11" s="2">
+        <v>7000</v>
+      </c>
+      <c r="N11" s="5">
         <f>销售与成长计划!N10</f>
-        <v>6000</v>
-      </c>
-      <c r="O11" s="2">
+        <v>7000</v>
+      </c>
+      <c r="O11" s="5">
         <f t="shared" si="1"/>
-        <v>72000</v>
+        <v>84000</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <f>销售与成长计划!C11</f>
         <v>3000</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <f>销售与成长计划!D11</f>
         <v>3000</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <f>销售与成长计划!E11</f>
         <v>3000</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="5">
         <f>销售与成长计划!F11</f>
         <v>3000</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <f>销售与成长计划!G11</f>
         <v>3000</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <f>销售与成长计划!H11</f>
         <v>3000</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="5">
         <f>销售与成长计划!I11</f>
         <v>3000</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="5">
         <f>销售与成长计划!J11</f>
         <v>3000</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="5">
         <f>销售与成长计划!K11</f>
         <v>3000</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="5">
         <f>销售与成长计划!L11</f>
         <v>3000</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="5">
         <f>销售与成长计划!M11</f>
         <v>3000</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="5">
         <f>销售与成长计划!N11</f>
         <v>3000</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="5">
         <f t="shared" si="1"/>
         <v>36000</v>
       </c>
@@ -4921,59 +4994,59 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <f>销售与成长计划!C12</f>
         <v>18</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <f>销售与成长计划!D12</f>
         <v>18</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <f>销售与成长计划!E12</f>
         <v>18</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="5">
         <f>销售与成长计划!F12</f>
         <v>18</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <f>销售与成长计划!G12</f>
         <v>18</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="5">
         <f>销售与成长计划!H12</f>
         <v>18</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="5">
         <f>销售与成长计划!I12</f>
         <v>18</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="5">
         <f>销售与成长计划!J12</f>
         <v>18</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="5">
         <f>销售与成长计划!K12</f>
         <v>18</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="5">
         <f>销售与成长计划!L12</f>
         <v>18</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="5">
         <f>销售与成长计划!M12</f>
         <v>18</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="5">
         <f>销售与成长计划!N12</f>
         <v>18</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="5">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
@@ -4981,59 +5054,59 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <f>销售与成长计划!C13</f>
         <v>300</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <f>销售与成长计划!D13</f>
         <v>300</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="5">
         <f>销售与成长计划!E13</f>
         <v>300</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <f>销售与成长计划!F13</f>
         <v>300</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <f>销售与成长计划!G13</f>
         <v>300</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="5">
         <f>销售与成长计划!H13</f>
         <v>300</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="5">
         <f>销售与成长计划!I13</f>
         <v>300</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="5">
         <f>销售与成长计划!J13</f>
         <v>300</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="5">
         <f>销售与成长计划!K13</f>
         <v>300</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="5">
         <f>销售与成长计划!L13</f>
         <v>300</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="5">
         <f>销售与成长计划!M13</f>
         <v>300</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="5">
         <f>销售与成长计划!N13</f>
         <v>300</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="5">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
@@ -5041,582 +5114,582 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <f>销售与成长计划!C14</f>
+        <v>100</v>
+      </c>
+      <c r="D15" s="5">
+        <f>销售与成长计划!D14</f>
+        <v>100</v>
+      </c>
+      <c r="E15" s="5">
+        <f>销售与成长计划!E14</f>
+        <v>100</v>
+      </c>
+      <c r="F15" s="5">
+        <f>销售与成长计划!F14</f>
+        <v>100</v>
+      </c>
+      <c r="G15" s="5">
+        <f>销售与成长计划!G14</f>
+        <v>100</v>
+      </c>
+      <c r="H15" s="5">
+        <f>销售与成长计划!H14</f>
+        <v>100</v>
+      </c>
+      <c r="I15" s="5">
+        <f>销售与成长计划!I14</f>
+        <v>100</v>
+      </c>
+      <c r="J15" s="5">
+        <f>销售与成长计划!J14</f>
+        <v>100</v>
+      </c>
+      <c r="K15" s="5">
+        <f>销售与成长计划!K14</f>
+        <v>100</v>
+      </c>
+      <c r="L15" s="5">
+        <f>销售与成长计划!L14</f>
+        <v>100</v>
+      </c>
+      <c r="M15" s="5">
+        <f>销售与成长计划!M14</f>
+        <v>100</v>
+      </c>
+      <c r="N15" s="5">
+        <f>销售与成长计划!N14</f>
+        <v>100</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5">
+        <f>销售与成长计划!C15</f>
+        <v>200</v>
+      </c>
+      <c r="D16" s="5">
+        <f>销售与成长计划!D15</f>
+        <v>200</v>
+      </c>
+      <c r="E16" s="5">
+        <f>销售与成长计划!E15</f>
+        <v>200</v>
+      </c>
+      <c r="F16" s="5">
+        <f>销售与成长计划!F15</f>
+        <v>200</v>
+      </c>
+      <c r="G16" s="5">
+        <f>销售与成长计划!G15</f>
+        <v>200</v>
+      </c>
+      <c r="H16" s="5">
+        <f>销售与成长计划!H15</f>
+        <v>200</v>
+      </c>
+      <c r="I16" s="5">
+        <f>销售与成长计划!I15</f>
+        <v>200</v>
+      </c>
+      <c r="J16" s="5">
+        <f>销售与成长计划!J15</f>
+        <v>200</v>
+      </c>
+      <c r="K16" s="5">
+        <f>销售与成长计划!K15</f>
+        <v>200</v>
+      </c>
+      <c r="L16" s="5">
+        <f>销售与成长计划!L15</f>
+        <v>200</v>
+      </c>
+      <c r="M16" s="5">
+        <f>销售与成长计划!M15</f>
+        <v>200</v>
+      </c>
+      <c r="N16" s="5">
+        <f>销售与成长计划!N15</f>
+        <v>200</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5">
+        <f>销售与成长计划!C16</f>
         <v>50</v>
       </c>
-      <c r="D15" s="2">
-        <f>销售与成长计划!D14</f>
+      <c r="D17" s="5">
+        <f>销售与成长计划!D16</f>
         <v>50</v>
       </c>
-      <c r="E15" s="2">
-        <f>销售与成长计划!E14</f>
+      <c r="E17" s="5">
+        <f>销售与成长计划!E16</f>
         <v>50</v>
       </c>
-      <c r="F15" s="2">
-        <f>销售与成长计划!F14</f>
+      <c r="F17" s="5">
+        <f>销售与成长计划!F16</f>
         <v>50</v>
       </c>
-      <c r="G15" s="2">
-        <f>销售与成长计划!G14</f>
+      <c r="G17" s="5">
+        <f>销售与成长计划!G16</f>
         <v>50</v>
       </c>
-      <c r="H15" s="2">
-        <f>销售与成长计划!H14</f>
+      <c r="H17" s="5">
+        <f>销售与成长计划!H16</f>
         <v>50</v>
       </c>
-      <c r="I15" s="2">
-        <f>销售与成长计划!I14</f>
+      <c r="I17" s="5">
+        <f>销售与成长计划!I16</f>
         <v>50</v>
       </c>
-      <c r="J15" s="2">
-        <f>销售与成长计划!J14</f>
+      <c r="J17" s="5">
+        <f>销售与成长计划!J16</f>
         <v>50</v>
       </c>
-      <c r="K15" s="2">
-        <f>销售与成长计划!K14</f>
+      <c r="K17" s="5">
+        <f>销售与成长计划!K16</f>
         <v>50</v>
       </c>
-      <c r="L15" s="2">
-        <f>销售与成长计划!L14</f>
+      <c r="L17" s="5">
+        <f>销售与成长计划!L16</f>
         <v>50</v>
       </c>
-      <c r="M15" s="2">
-        <f>销售与成长计划!M14</f>
+      <c r="M17" s="5">
+        <f>销售与成长计划!M16</f>
         <v>50</v>
       </c>
-      <c r="N15" s="2">
-        <f>销售与成长计划!N14</f>
+      <c r="N17" s="5">
+        <f>销售与成长计划!N16</f>
         <v>50</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O17" s="5">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2">
-        <f>销售与成长计划!C15</f>
-        <v>200</v>
-      </c>
-      <c r="D16" s="2">
-        <f>销售与成长计划!D15</f>
-        <v>200</v>
-      </c>
-      <c r="E16" s="2">
-        <f>销售与成长计划!E15</f>
-        <v>200</v>
-      </c>
-      <c r="F16" s="2">
-        <f>销售与成长计划!F15</f>
-        <v>200</v>
-      </c>
-      <c r="G16" s="2">
-        <f>销售与成长计划!G15</f>
-        <v>200</v>
-      </c>
-      <c r="H16" s="2">
-        <f>销售与成长计划!H15</f>
-        <v>200</v>
-      </c>
-      <c r="I16" s="2">
-        <f>销售与成长计划!I15</f>
-        <v>200</v>
-      </c>
-      <c r="J16" s="2">
-        <f>销售与成长计划!J15</f>
-        <v>200</v>
-      </c>
-      <c r="K16" s="2">
-        <f>销售与成长计划!K15</f>
-        <v>200</v>
-      </c>
-      <c r="L16" s="2">
-        <f>销售与成长计划!L15</f>
-        <v>200</v>
-      </c>
-      <c r="M16" s="2">
-        <f>销售与成长计划!M15</f>
-        <v>200</v>
-      </c>
-      <c r="N16" s="2">
-        <f>销售与成长计划!N15</f>
-        <v>200</v>
-      </c>
-      <c r="O16" s="2">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5">
+        <f>销售与成长计划!C17</f>
+        <v>100</v>
+      </c>
+      <c r="D18" s="5">
+        <f>销售与成长计划!D17</f>
+        <v>100</v>
+      </c>
+      <c r="E18" s="5">
+        <f>销售与成长计划!E17</f>
+        <v>100</v>
+      </c>
+      <c r="F18" s="5">
+        <f>销售与成长计划!F17</f>
+        <v>100</v>
+      </c>
+      <c r="G18" s="5">
+        <f>销售与成长计划!G17</f>
+        <v>100</v>
+      </c>
+      <c r="H18" s="5">
+        <f>销售与成长计划!H17</f>
+        <v>100</v>
+      </c>
+      <c r="I18" s="5">
+        <f>销售与成长计划!I17</f>
+        <v>100</v>
+      </c>
+      <c r="J18" s="5">
+        <f>销售与成长计划!J17</f>
+        <v>100</v>
+      </c>
+      <c r="K18" s="5">
+        <f>销售与成长计划!K17</f>
+        <v>100</v>
+      </c>
+      <c r="L18" s="5">
+        <f>销售与成长计划!L17</f>
+        <v>100</v>
+      </c>
+      <c r="M18" s="5">
+        <f>销售与成长计划!M17</f>
+        <v>100</v>
+      </c>
+      <c r="N18" s="5">
+        <f>销售与成长计划!N17</f>
+        <v>100</v>
+      </c>
+      <c r="O18" s="5">
         <f t="shared" si="1"/>
-        <v>2400</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2">
-        <f>销售与成长计划!C16</f>
+        <v>1200</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5">
+        <f>销售与成长计划!C18</f>
         <v>50</v>
       </c>
-      <c r="D17" s="2">
-        <f>销售与成长计划!D16</f>
+      <c r="D19" s="5">
+        <f>销售与成长计划!D18</f>
         <v>50</v>
       </c>
-      <c r="E17" s="2">
-        <f>销售与成长计划!E16</f>
+      <c r="E19" s="5">
+        <f>销售与成长计划!E18</f>
         <v>50</v>
       </c>
-      <c r="F17" s="2">
-        <f>销售与成长计划!F16</f>
+      <c r="F19" s="5">
+        <f>销售与成长计划!F18</f>
         <v>50</v>
       </c>
-      <c r="G17" s="2">
-        <f>销售与成长计划!G16</f>
+      <c r="G19" s="5">
+        <f>销售与成长计划!G18</f>
         <v>50</v>
       </c>
-      <c r="H17" s="2">
-        <f>销售与成长计划!H16</f>
+      <c r="H19" s="5">
+        <f>销售与成长计划!H18</f>
         <v>50</v>
       </c>
-      <c r="I17" s="2">
-        <f>销售与成长计划!I16</f>
+      <c r="I19" s="5">
+        <f>销售与成长计划!I18</f>
         <v>50</v>
       </c>
-      <c r="J17" s="2">
-        <f>销售与成长计划!J16</f>
+      <c r="J19" s="5">
+        <f>销售与成长计划!J18</f>
         <v>50</v>
       </c>
-      <c r="K17" s="2">
-        <f>销售与成长计划!K16</f>
+      <c r="K19" s="5">
+        <f>销售与成长计划!K18</f>
         <v>50</v>
       </c>
-      <c r="L17" s="2">
-        <f>销售与成长计划!L16</f>
+      <c r="L19" s="5">
+        <f>销售与成长计划!L18</f>
         <v>50</v>
       </c>
-      <c r="M17" s="2">
-        <f>销售与成长计划!M16</f>
+      <c r="M19" s="5">
+        <f>销售与成长计划!M18</f>
         <v>50</v>
       </c>
-      <c r="N17" s="2">
-        <f>销售与成长计划!N16</f>
+      <c r="N19" s="5">
+        <f>销售与成长计划!N18</f>
         <v>50</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O19" s="5">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2">
-        <f>销售与成长计划!C17</f>
-        <v>100</v>
-      </c>
-      <c r="D18" s="2">
-        <f>销售与成长计划!D17</f>
-        <v>100</v>
-      </c>
-      <c r="E18" s="2">
-        <f>销售与成长计划!E17</f>
-        <v>100</v>
-      </c>
-      <c r="F18" s="2">
-        <f>销售与成长计划!F17</f>
-        <v>100</v>
-      </c>
-      <c r="G18" s="2">
-        <f>销售与成长计划!G17</f>
-        <v>100</v>
-      </c>
-      <c r="H18" s="2">
-        <f>销售与成长计划!H17</f>
-        <v>100</v>
-      </c>
-      <c r="I18" s="2">
-        <f>销售与成长计划!I17</f>
-        <v>100</v>
-      </c>
-      <c r="J18" s="2">
-        <f>销售与成长计划!J17</f>
-        <v>100</v>
-      </c>
-      <c r="K18" s="2">
-        <f>销售与成长计划!K17</f>
-        <v>100</v>
-      </c>
-      <c r="L18" s="2">
-        <f>销售与成长计划!L17</f>
-        <v>100</v>
-      </c>
-      <c r="M18" s="2">
-        <f>销售与成长计划!M17</f>
-        <v>100</v>
-      </c>
-      <c r="N18" s="2">
-        <f>销售与成长计划!N17</f>
-        <v>100</v>
-      </c>
-      <c r="O18" s="2">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2">
-        <f>销售与成长计划!C18</f>
-        <v>25</v>
-      </c>
-      <c r="D19" s="2">
-        <f>销售与成长计划!D18</f>
-        <v>25</v>
-      </c>
-      <c r="E19" s="2">
-        <f>销售与成长计划!E18</f>
-        <v>25</v>
-      </c>
-      <c r="F19" s="2">
-        <f>销售与成长计划!F18</f>
-        <v>25</v>
-      </c>
-      <c r="G19" s="2">
-        <f>销售与成长计划!G18</f>
-        <v>25</v>
-      </c>
-      <c r="H19" s="2">
-        <f>销售与成长计划!H18</f>
-        <v>25</v>
-      </c>
-      <c r="I19" s="2">
-        <f>销售与成长计划!I18</f>
-        <v>25</v>
-      </c>
-      <c r="J19" s="2">
-        <f>销售与成长计划!J18</f>
-        <v>25</v>
-      </c>
-      <c r="K19" s="2">
-        <f>销售与成长计划!K18</f>
-        <v>25</v>
-      </c>
-      <c r="L19" s="2">
-        <f>销售与成长计划!L18</f>
-        <v>25</v>
-      </c>
-      <c r="M19" s="2">
-        <f>销售与成长计划!M18</f>
-        <v>25</v>
-      </c>
-      <c r="N19" s="2">
-        <f>销售与成长计划!N18</f>
-        <v>25</v>
-      </c>
-      <c r="O19" s="2">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="2"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="5"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="8">
         <f>销售与成长计划!C3+销售与成长计划!C22</f>
-        <v>1100.97087378641</v>
-      </c>
-      <c r="D22" s="1">
+        <v>3394.6601941747572</v>
+      </c>
+      <c r="D22" s="8">
         <f>销售与成长计划!D3+销售与成长计划!D22</f>
-        <v>1192.7184466019401</v>
-      </c>
-      <c r="E22" s="1">
+        <v>3654.6116504854372</v>
+      </c>
+      <c r="E22" s="8">
         <f>销售与成长计划!E3+销售与成长计划!E22</f>
-        <v>1192.7184466019401</v>
-      </c>
-      <c r="F22" s="1">
+        <v>3654.6116504854372</v>
+      </c>
+      <c r="F22" s="8">
         <f>销售与成长计划!F3+销售与成长计划!F22</f>
-        <v>1192.7184466019401</v>
-      </c>
-      <c r="G22" s="1">
+        <v>3654.6116504854372</v>
+      </c>
+      <c r="G22" s="8">
         <f>销售与成长计划!G3+销售与成长计划!G22</f>
-        <v>1192.7184466019401</v>
-      </c>
-      <c r="H22" s="1">
+        <v>3654.6116504854372</v>
+      </c>
+      <c r="H22" s="8">
         <f>销售与成长计划!H3+销售与成长计划!H22</f>
-        <v>1467.9611650485399</v>
-      </c>
-      <c r="I22" s="1">
+        <v>4434.4660194174758</v>
+      </c>
+      <c r="I22" s="8">
         <f>销售与成长计划!I3+销售与成长计划!I22</f>
-        <v>1467.9611650485399</v>
-      </c>
-      <c r="J22" s="1">
+        <v>4434.4660194174758</v>
+      </c>
+      <c r="J22" s="8">
         <f>销售与成长计划!J3+销售与成长计划!J22</f>
-        <v>1559.7087378640799</v>
-      </c>
-      <c r="K22" s="1">
+        <v>4694.4174757281553</v>
+      </c>
+      <c r="K22" s="8">
         <f>销售与成长计划!K3+销售与成长计划!K22</f>
-        <v>1651.4563106796099</v>
-      </c>
-      <c r="L22" s="1">
+        <v>4954.3689320388348</v>
+      </c>
+      <c r="L22" s="8">
         <f>销售与成长计划!L3+销售与成长计划!L22</f>
-        <v>1743.20388349515</v>
-      </c>
-      <c r="M22" s="1">
+        <v>5214.3203883495144</v>
+      </c>
+      <c r="M22" s="8">
         <f>销售与成长计划!M3+销售与成长计划!M22</f>
-        <v>1834.95145631068</v>
-      </c>
-      <c r="N22" s="1">
+        <v>5474.2718446601939</v>
+      </c>
+      <c r="N22" s="8">
         <f>销售与成长计划!N3+销售与成长计划!N22</f>
-        <v>1926.69902912621</v>
-      </c>
-      <c r="O22" s="1">
+        <v>5734.2233009708743</v>
+      </c>
+      <c r="O22" s="8">
         <f t="shared" si="1"/>
-        <v>17523.786407766998</v>
+        <v>52953.640776699023</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="8">
         <f>SUM(C8:C25)</f>
-        <v>10843.970873786409</v>
-      </c>
-      <c r="D26" s="1">
+        <v>14212.660194174758</v>
+      </c>
+      <c r="D26" s="8">
         <f t="shared" ref="D26:N26" si="3">SUM(D8:D25)</f>
-        <v>10935.718446601941</v>
-      </c>
-      <c r="E26" s="1">
+        <v>14472.611650485436</v>
+      </c>
+      <c r="E26" s="8">
         <f t="shared" si="3"/>
-        <v>10935.718446601941</v>
-      </c>
-      <c r="F26" s="1">
+        <v>14472.611650485436</v>
+      </c>
+      <c r="F26" s="8">
         <f t="shared" si="3"/>
-        <v>10935.718446601941</v>
-      </c>
-      <c r="G26" s="1">
+        <v>14472.611650485436</v>
+      </c>
+      <c r="G26" s="8">
         <f t="shared" si="3"/>
-        <v>10935.718446601941</v>
-      </c>
-      <c r="H26" s="1">
+        <v>14472.611650485436</v>
+      </c>
+      <c r="H26" s="8">
         <f t="shared" si="3"/>
-        <v>11210.96116504854</v>
-      </c>
-      <c r="I26" s="1">
+        <v>15252.466019417476</v>
+      </c>
+      <c r="I26" s="8">
         <f t="shared" si="3"/>
-        <v>11210.96116504854</v>
-      </c>
-      <c r="J26" s="1">
+        <v>15252.466019417476</v>
+      </c>
+      <c r="J26" s="8">
         <f t="shared" si="3"/>
-        <v>11302.708737864079</v>
-      </c>
-      <c r="K26" s="1">
+        <v>15512.417475728154</v>
+      </c>
+      <c r="K26" s="8">
         <f t="shared" si="3"/>
-        <v>11394.45631067961</v>
-      </c>
-      <c r="L26" s="1">
+        <v>15772.368932038835</v>
+      </c>
+      <c r="L26" s="8">
         <f t="shared" si="3"/>
-        <v>11486.203883495149</v>
-      </c>
-      <c r="M26" s="1">
+        <v>16032.320388349515</v>
+      </c>
+      <c r="M26" s="8">
         <f t="shared" si="3"/>
-        <v>11577.95145631068</v>
-      </c>
-      <c r="N26" s="1">
+        <v>16292.271844660194</v>
+      </c>
+      <c r="N26" s="8">
         <f t="shared" si="3"/>
-        <v>11669.69902912621</v>
-      </c>
-      <c r="O26" s="1">
+        <v>16552.223300970873</v>
+      </c>
+      <c r="O26" s="8">
         <f t="shared" si="1"/>
-        <v>134439.78640776701</v>
+        <v>182769.64077669906</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="1">
+      <c r="B27" s="13"/>
+      <c r="C27" s="8">
         <f>C2+C7-C26</f>
-        <v>45156.029126213587</v>
-      </c>
-      <c r="D27" s="1">
+        <v>116787.33980582524</v>
+      </c>
+      <c r="D27" s="8">
         <f t="shared" ref="D27:N27" si="4">D2+D7-D26</f>
-        <v>73220.310679611648</v>
-      </c>
-      <c r="E27" s="1">
+        <v>221814.72815533981</v>
+      </c>
+      <c r="E27" s="8">
         <f t="shared" si="4"/>
-        <v>101284.59223300971</v>
-      </c>
-      <c r="F27" s="1">
+        <v>326842.11650485441</v>
+      </c>
+      <c r="F27" s="8">
         <f t="shared" si="4"/>
-        <v>129348.87378640776</v>
-      </c>
-      <c r="G27" s="1">
+        <v>431869.50485436898</v>
+      </c>
+      <c r="G27" s="8">
         <f t="shared" si="4"/>
-        <v>157413.15533980582</v>
-      </c>
-      <c r="H27" s="1">
+        <v>536896.89320388355</v>
+      </c>
+      <c r="H27" s="8">
         <f t="shared" si="4"/>
-        <v>194202.19417475729</v>
-      </c>
-      <c r="I27" s="1">
+        <v>666644.42718446604</v>
+      </c>
+      <c r="I27" s="8">
         <f t="shared" si="4"/>
-        <v>230991.23300970875</v>
-      </c>
-      <c r="J27" s="1">
+        <v>796391.96116504853</v>
+      </c>
+      <c r="J27" s="8">
         <f t="shared" si="4"/>
-        <v>270688.52427184465</v>
-      </c>
-      <c r="K27" s="1">
+        <v>934379.54368932033</v>
+      </c>
+      <c r="K27" s="8">
         <f t="shared" si="4"/>
-        <v>313294.06796116504</v>
-      </c>
-      <c r="L27" s="1">
+        <v>1080607.1747572816</v>
+      </c>
+      <c r="L27" s="8">
         <f t="shared" si="4"/>
-        <v>358807.86407766992</v>
-      </c>
-      <c r="M27" s="1">
+        <v>1235074.8543689321</v>
+      </c>
+      <c r="M27" s="8">
         <f t="shared" si="4"/>
-        <v>407229.91262135922</v>
-      </c>
-      <c r="N27" s="1">
+        <v>1397782.5825242719</v>
+      </c>
+      <c r="N27" s="8">
         <f t="shared" si="4"/>
-        <v>458560.21359223302</v>
-      </c>
-      <c r="O27" s="1">
+        <v>1568730.3592233011</v>
+      </c>
+      <c r="O27" s="8">
         <f t="shared" si="1"/>
-        <v>2740196.9708737866</v>
+        <v>9313821.4854368921</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="2"/>
@@ -5705,7 +5778,8 @@
     <mergeCell ref="A8:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>